--- a/newpycode/inventory_bulk_import/product_list.xlsx
+++ b/newpycode/inventory_bulk_import/product_list.xlsx
@@ -546,17 +546,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A</t>
+          <t>qap-dh-48YDO5IE1VH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A-PINK-S</t>
+          <t>qap-dh-48YDO5IE1VH-PINK-XL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>h-B7KO9SIYM0A123</t>
+          <t>h-48YDO5IE1VH101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -666,24 +666,24 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A</t>
+          <t>qap-dh-48YDO5IE1VH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A-PINK-M</t>
+          <t>qap-dh-48YDO5IE1VH-PINK-M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>h-B7KO9SIYM0A456</t>
+          <t>h-48YDO5IE1VH456</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A</t>
+          <t>qap-dh-48YDO5IE1VH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A-PINK-XL</t>
+          <t>qap-dh-48YDO5IE1VH-PINK-L</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>h-B7KO9SIYM0A101</t>
+          <t>h-48YDO5IE1VH789</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -920,24 +920,24 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A</t>
+          <t>qap-dh-48YDO5IE1VH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qap-dh-B7KO9SIYM0A-PINK-L</t>
+          <t>qap-dh-48YDO5IE1VH-PINK-S</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>h-B7KO9SIYM0A789</t>
+          <t>h-48YDO5IE1VH123</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1047,24 +1047,24 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS</t>
+          <t>qap-dh-OFUASTABWQB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS-PINK-S</t>
+          <t>qap-dh-OFUASTABWQB-PINK-XL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>h-TIN7O6BV5NS123</t>
+          <t>h-OFUASTABWQB101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1174,24 +1174,24 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS</t>
+          <t>qap-dh-OFUASTABWQB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS-PINK-M</t>
+          <t>qap-dh-OFUASTABWQB-PINK-M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>h-TIN7O6BV5NS456</t>
+          <t>h-OFUASTABWQB456</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1301,24 +1301,24 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS</t>
+          <t>qap-dh-OFUASTABWQB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS-PINK-XL</t>
+          <t>qap-dh-OFUASTABWQB-PINK-L</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>h-TIN7O6BV5NS101</t>
+          <t>h-OFUASTABWQB789</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1428,24 +1428,24 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS</t>
+          <t>qap-dh-OFUASTABWQB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>qap-dh-TIN7O6BV5NS-PINK-L</t>
+          <t>qap-dh-OFUASTABWQB-PINK-S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>h-TIN7O6BV5NS789</t>
+          <t>h-OFUASTABWQB123</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1555,24 +1555,24 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W</t>
+          <t>qap-dh-Q0PS08ZK0LP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W-PINK-S</t>
+          <t>qap-dh-Q0PS08ZK0LP-PINK-XL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>h-50GIID55S7W123</t>
+          <t>h-Q0PS08ZK0LP101</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -1682,24 +1682,24 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W</t>
+          <t>qap-dh-Q0PS08ZK0LP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W-PINK-M</t>
+          <t>qap-dh-Q0PS08ZK0LP-PINK-M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>h-50GIID55S7W456</t>
+          <t>h-Q0PS08ZK0LP456</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1809,24 +1809,24 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W</t>
+          <t>qap-dh-Q0PS08ZK0LP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W-PINK-XL</t>
+          <t>qap-dh-Q0PS08ZK0LP-PINK-L</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>h-50GIID55S7W101</t>
+          <t>h-Q0PS08ZK0LP789</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1936,24 +1936,24 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W</t>
+          <t>qap-dh-Q0PS08ZK0LP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>qap-dh-50GIID55S7W-PINK-L</t>
+          <t>qap-dh-Q0PS08ZK0LP-PINK-S</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>h-50GIID55S7W789</t>
+          <t>h-Q0PS08ZK0LP123</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
